--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T18:26:21+00:00</t>
+    <t>2025-12-03T15:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T15:31:39+00:00</t>
+    <t>2025-12-05T10:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:54:45+00:00</t>
+    <t>2025-12-08T08:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T08:28:39+00:00</t>
+    <t>2025-12-10T16:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T16:53:25+00:00</t>
+    <t>2025-12-15T10:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:12:23+00:00</t>
+    <t>2025-12-15T10:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:59:45+00:00</t>
+    <t>2026-01-07T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:19:48+00:00</t>
+    <t>2026-01-09T15:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:13:58+00:00</t>
+    <t>2026-01-09T15:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-auteur-apsr.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:21:06+00:00</t>
+    <t>2026-01-16T13:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
